--- a/受控文档/需求分析/内部评审/srs内部评审.xlsx
+++ b/受控文档/需求分析/内部评审/srs内部评审.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>评审条目</t>
   </si>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>3.是否识别了用户群？找到了相关的用户代表？</t>
+  </si>
+  <si>
+    <t>改进措施：
+继续完善原型界面。
+修改测试用例。
+针对复杂的系统交互环节，使用UML工具进行描述。
+修改对话框图。
+将QFD打分应用到用例文档与SRS当中。</t>
   </si>
   <si>
     <t>4.是否邀请并确认了相关的用户代表？明确了相关职责？</t>
@@ -140,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -172,24 +180,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,13 +209,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -223,21 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -245,8 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +254,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -268,9 +284,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,22 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,15 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +339,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,43 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,25 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,97 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +530,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,11 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,35 +598,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,60 +630,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,104 +683,104 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +796,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1137,7 +1151,7 @@
   <dimension ref="A1:O201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1292,14 +1306,16 @@
         <v>3.8</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" ht="15" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1324,14 +1340,14 @@
         <v>3.8</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" ht="15" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1356,14 +1372,14 @@
         <v>4</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" ht="15" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1388,14 +1404,14 @@
         <v>3.4</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" ht="15" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1420,14 +1436,14 @@
         <v>3.4</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" ht="15" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1452,14 +1468,14 @@
         <v>3.6</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" ht="15" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1484,14 +1500,14 @@
         <v>3.2</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" ht="15" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1516,14 +1532,14 @@
         <v>3.4</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" ht="15" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1548,14 +1564,14 @@
         <v>3.6</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" ht="15" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1580,14 +1596,14 @@
         <v>3.2</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" ht="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1612,14 +1628,14 @@
         <v>3</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" ht="15" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1651,7 +1667,7 @@
     </row>
     <row r="17" ht="15" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1683,7 +1699,7 @@
     </row>
     <row r="18" ht="15" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1715,7 +1731,7 @@
     </row>
     <row r="19" ht="15" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1747,7 +1763,7 @@
     </row>
     <row r="20" ht="15" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1779,7 +1795,7 @@
     </row>
     <row r="21" ht="15" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1811,7 +1827,7 @@
     </row>
     <row r="22" ht="15" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1843,7 +1859,7 @@
     </row>
     <row r="23" ht="15" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1875,7 +1891,7 @@
     </row>
     <row r="24" ht="15" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1907,7 +1923,7 @@
     </row>
     <row r="25" ht="15" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1939,7 +1955,7 @@
     </row>
     <row r="26" ht="15" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1971,7 +1987,7 @@
     </row>
     <row r="27" ht="15" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2003,7 +2019,7 @@
     </row>
     <row r="28" ht="15" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2035,7 +2051,7 @@
     </row>
     <row r="29" ht="15" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2067,7 +2083,7 @@
     </row>
     <row r="30" ht="15" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2099,7 +2115,7 @@
     </row>
     <row r="31" ht="15" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2131,7 +2147,7 @@
     </row>
     <row r="32" ht="15" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5035,7 +5051,7 @@
       <c r="O201" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="A3:D3"/>
@@ -5069,6 +5085,7 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="L5:O15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
